--- a/public/templates/plantillaVentaInmuebles.xlsx
+++ b/public/templates/plantillaVentaInmuebles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrrme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrrme\Downloads\Actualizar Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1339BED-6AA2-45C0-9059-209B7E3B411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C2BE9-A128-417E-9C11-A7651CFA4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="9" r:id="rId1"/>
@@ -20,27 +20,27 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="actividadec">Configuracion!$E$3:$E$169</definedName>
+    <definedName name="actividadec">Configuracion!$F$3:$F$169</definedName>
     <definedName name="actividadeconomica">[1]Configuracion!$E$3:$E$169</definedName>
-    <definedName name="creditos">Configuracion!$AH$3:$AH$5</definedName>
-    <definedName name="estado">Configuracion!$Z$3:$Z$34</definedName>
-    <definedName name="figuraactividad">Configuracion!$AL$3:$AL$5</definedName>
-    <definedName name="figuracliente">Configuracion!$AJ$3:$AJ$4</definedName>
-    <definedName name="formapago">Configuracion!$AN$3:$AN$7</definedName>
-    <definedName name="garantia">Configuracion!$T$3:$T$15</definedName>
-    <definedName name="giro">Configuracion!$H$3:$H$138</definedName>
-    <definedName name="ifinanciera">Configuracion!$AF$3:$AF$42</definedName>
+    <definedName name="creditos">Configuracion!$AI$3:$AI$5</definedName>
+    <definedName name="estado">Configuracion!$AA$3:$AA$34</definedName>
+    <definedName name="figuraactividad">Configuracion!$AM$3:$AM$5</definedName>
+    <definedName name="figuracliente">Configuracion!$AK$3:$AK$4</definedName>
+    <definedName name="formapago">Configuracion!$AO$3:$AO$7</definedName>
+    <definedName name="garantia">Configuracion!$U$3:$U$15</definedName>
+    <definedName name="giro">Configuracion!$I$3:$I$138</definedName>
+    <definedName name="ifinanciera">Configuracion!$AG$3:$AG$42</definedName>
     <definedName name="inmueble">[1]Configuracion!$J$3:$J$21</definedName>
-    <definedName name="instrumento">Configuracion!$N$3:$N$19</definedName>
-    <definedName name="moneda">Configuracion!$P$3:$P$186</definedName>
-    <definedName name="pais">Configuracion!$C$3:$C$251</definedName>
+    <definedName name="instrumento">Configuracion!$O$3:$O$19</definedName>
+    <definedName name="moneda">Configuracion!$Q$3:$Q$186</definedName>
+    <definedName name="pais">Configuracion!$D$3:$D$251</definedName>
     <definedName name="país">[1]Configuracion!$C$3:$C$251</definedName>
-    <definedName name="sino">Configuracion!$V$3:$V$4</definedName>
-    <definedName name="tercero">Configuracion!$AD$3:$AD$5</definedName>
-    <definedName name="tipobien">Configuracion!$X$3:$X$11</definedName>
-    <definedName name="tipocre">Configuracion!$R$3:$R$4</definedName>
-    <definedName name="tipodesarrollo">Configuracion!$AB$3:$AB$8</definedName>
-    <definedName name="tipoinmueble">Configuracion!$J$3:$J$21</definedName>
+    <definedName name="sino">Configuracion!$W$3:$W$4</definedName>
+    <definedName name="tercero">Configuracion!$AE$3:$AE$5</definedName>
+    <definedName name="tipobien">Configuracion!$Y$3:$Y$11</definedName>
+    <definedName name="tipocre">Configuracion!$S$3:$S$4</definedName>
+    <definedName name="tipodesarrollo">Configuracion!$AC$3:$AC$8</definedName>
+    <definedName name="tipoinmueble">Configuracion!$K$3:$K$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="982">
   <si>
     <t>Forma de pago</t>
   </si>
@@ -2995,6 +2995,12 @@
   </si>
   <si>
     <t>2,24 hrs. con operaciones</t>
+  </si>
+  <si>
+    <t>route_param</t>
+  </si>
+  <si>
+    <t>real_estate_sale</t>
   </si>
 </sst>
 </file>
@@ -3334,16 +3340,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3361,11 +3372,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5593,572 +5599,572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15" t="s">
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="16" t="s">
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="16" t="s">
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="16" t="s">
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
     </row>
     <row r="2" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="18" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="12" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="12" t="s">
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="12" t="s">
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="12" t="s">
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="12" t="s">
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="12" t="s">
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="12" t="s">
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="12" t="s">
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13"/>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="13"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="12" t="s">
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="21" t="s">
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="CT2" s="12" t="s">
+      <c r="CT2" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="14"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="18"/>
     </row>
     <row r="3" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AF3" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AG3" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AK3" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="AN3" s="22" t="s">
+      <c r="AN3" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AP3" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="AQ3" s="22" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="AR3" s="22" t="s">
+      <c r="AR3" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="AS3" s="22" t="s">
+      <c r="AS3" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="AT3" s="22" t="s">
+      <c r="AT3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AU3" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="AV3" s="22" t="s">
+      <c r="AV3" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="AW3" s="22" t="s">
+      <c r="AW3" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="AX3" s="22" t="s">
+      <c r="AX3" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="AY3" s="22" t="s">
+      <c r="AY3" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="AZ3" s="22" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BA3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="BB3" s="22" t="s">
+      <c r="BB3" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="BC3" s="22" t="s">
+      <c r="BC3" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="BD3" s="22" t="s">
+      <c r="BD3" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="BE3" s="22" t="s">
+      <c r="BE3" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="BF3" s="22" t="s">
+      <c r="BF3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="BG3" s="22" t="s">
+      <c r="BG3" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="BH3" s="22" t="s">
+      <c r="BH3" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="BI3" s="22" t="s">
+      <c r="BI3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="BJ3" s="22" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="BK3" s="22" t="s">
+      <c r="BK3" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="BL3" s="22" t="s">
+      <c r="BL3" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="BM3" s="22" t="s">
+      <c r="BM3" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="BN3" s="22" t="s">
+      <c r="BN3" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="BO3" s="22" t="s">
+      <c r="BO3" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="BP3" s="22" t="s">
+      <c r="BP3" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="BQ3" s="22" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="BR3" s="22" t="s">
+      <c r="BR3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="BS3" s="22" t="s">
+      <c r="BS3" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="BT3" s="22" t="s">
+      <c r="BT3" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="BU3" s="22" t="s">
+      <c r="BU3" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="BV3" s="22" t="s">
+      <c r="BV3" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="BW3" s="22" t="s">
+      <c r="BW3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="BX3" s="22" t="s">
+      <c r="BX3" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="BY3" s="22" t="s">
+      <c r="BY3" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="BZ3" s="22" t="s">
+      <c r="BZ3" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="CA3" s="22" t="s">
+      <c r="CA3" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="CB3" s="22" t="s">
+      <c r="CB3" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="CC3" s="22" t="s">
+      <c r="CC3" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="CD3" s="22" t="s">
+      <c r="CD3" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="CE3" s="22" t="s">
+      <c r="CE3" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="CF3" s="22" t="s">
+      <c r="CF3" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="CG3" s="22" t="s">
+      <c r="CG3" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="CH3" s="22" t="s">
+      <c r="CH3" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="CI3" s="22" t="s">
+      <c r="CI3" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="CJ3" s="22" t="s">
+      <c r="CJ3" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="CK3" s="22" t="s">
+      <c r="CK3" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="CL3" s="22" t="s">
+      <c r="CL3" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="CM3" s="22" t="s">
+      <c r="CM3" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="CN3" s="22" t="s">
+      <c r="CN3" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="CO3" s="22" t="s">
+      <c r="CO3" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="CP3" s="22" t="s">
+      <c r="CP3" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="CQ3" s="22" t="s">
+      <c r="CQ3" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="CR3" s="22" t="s">
+      <c r="CR3" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="CS3" s="22" t="s">
+      <c r="CS3" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="CT3" s="22" t="s">
+      <c r="CT3" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="CU3" s="22" t="s">
+      <c r="CU3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CV3" s="22" t="s">
+      <c r="CV3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="CW3" s="22" t="s">
+      <c r="CW3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="CX3" s="22" t="s">
+      <c r="CX3" s="13" t="s">
         <v>930</v>
       </c>
     </row>
@@ -38756,16 +38762,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:BC2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AF2:AK2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="CN2:CR2"/>
@@ -38782,6 +38778,16 @@
     <mergeCell ref="BN1:CA1"/>
     <mergeCell ref="AW1:BJ1"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:BC2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <dataValidations count="23">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="El campo no debe contener espacios, caracteres especiales ni letras y únicamente debe contener dígitos." promptTitle="Indicaciones" prompt="El formato debe ser AAAAMMDD." sqref="AC4:AC294 BK4:BK294 CO4:CO294 CS4:CT294 BQ4:BQ294 G4:G294 BV4:BV294 T4:T294 AZ4:AZ294 M4:M294 BE4:BE294" xr:uid="{8AD30F05-39FC-46B4-B687-F3C8AF943396}">
@@ -38865,13 +38871,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar un país de la lista desplegable." promptTitle="Indicaciones" prompt="Seleccionar un país de la lista desplegable." xr:uid="{8B873B78-1C51-4100-AD14-D58DE3027CE2}">
           <x14:formula1>
-            <xm:f>Configuracion!$C$3:$C$251</xm:f>
+            <xm:f>Configuracion!$D$3:$D$251</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O294 AL4:AL294 AT4:AT294 BC4:BC294 BG4:BG294 BT4:BT294 BX4:BX294 J4:J294</xm:sqref>
+          <xm:sqref>O4:O294 J4:J294 BX4:BX294 BT4:BT294 BG4:BG294 BC4:BC294 AT4:AT294 AL4:AL294</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar una prioridad de aviso de la lista desplegable." promptTitle="Indicaciones" prompt="Seleccionar una prioridad de aviso de la lista desplegable." xr:uid="{DC1706CB-F1AC-41AF-9A06-52DB954C6745}">
           <x14:formula1>
-            <xm:f>Configuracion!$B$3:$B$4</xm:f>
+            <xm:f>Configuracion!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C4:C294</xm:sqref>
         </x14:dataValidation>
@@ -38883,3281 +38889,3288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AN251"/>
+  <dimension ref="A2:AO251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>802</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>910</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>913</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B3" t="s">
         <v>803</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>978</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>786</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>788</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>803</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>805</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>818</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>853</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>861</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>902</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>905</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>911</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>911</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>804</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>979</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>787</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>789</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>804</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>806</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>819</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>854</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>862</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>903</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>906</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>912</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>912</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>790</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>807</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>820</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>855</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>123</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>864</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>907</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>914</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>791</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>808</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>821</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>856</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>865</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>792</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>809</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>822</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>857</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>866</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>793</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>810</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>823</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>123</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>794</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>811</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>824</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>795</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>812</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>825</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>64</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>796</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>800</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>826</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>70</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>797</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>827</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>76</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>798</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>828</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>82</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>799</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>829</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>88</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>800</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>830</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>94</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>831</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>99</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Q17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>832</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>104</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>105</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>106</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>833</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>111</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>112</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>834</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>115</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>835</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>122</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>123</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>836</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="Q22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>837</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>129</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>130</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>838</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>134</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>135</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>839</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>137</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>138</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="Q25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>840</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>142</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>841</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>145</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>146</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="Q27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>842</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>149</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>150</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>151</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>843</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>153</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>154</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="Q29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>844</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>157</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>158</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>159</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>845</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="31" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>162</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>163</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>846</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="32" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>165</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>166</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>167</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>847</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>169</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>170</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>171</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>848</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="34" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>173</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>175</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>849</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>177</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>178</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>179</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="Q35" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>182</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>183</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="Q36" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>185</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>186</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>187</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="Q37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>190</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>191</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="Q38" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>193</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>194</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>195</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>197</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>198</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>201</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>202</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>203</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="42" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>205</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>206</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>207</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="Q42" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="43" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>209</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>210</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>211</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="44" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>213</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>214</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>215</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="Q44" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="45" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>217</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>218</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>219</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="Q45" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="46" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>221</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>222</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="Q46" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="47" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>226</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>227</v>
       </c>
-      <c r="P47" s="6" t="s">
+      <c r="Q47" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>229</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>230</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>231</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>233</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>234</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>235</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="Q49" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>237</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>238</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>239</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="Q50" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>241</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>242</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>243</v>
       </c>
-      <c r="P51" s="6" t="s">
+      <c r="Q51" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>245</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>246</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>247</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="Q52" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>249</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>250</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>251</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>253</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>254</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>255</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>257</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>258</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>259</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>261</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>262</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>263</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="Q56" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>265</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>266</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>267</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>269</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>270</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>271</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>273</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>274</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>275</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>277</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>278</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>279</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="Q60" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>281</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>282</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>283</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="Q61" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="62" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>285</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>286</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>287</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="Q62" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>289</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>290</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>291</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="Q63" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>293</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>294</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>295</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="Q64" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>297</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>298</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>299</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>301</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>302</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>303</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>305</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>306</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>307</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>309</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>310</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>311</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="Q68" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>313</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>314</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>315</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="Q69" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>317</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>318</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>319</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="Q70" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>321</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>322</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>323</v>
       </c>
-      <c r="P71" s="6" t="s">
+      <c r="Q71" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>325</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>326</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>327</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="Q72" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>329</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>330</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>331</v>
       </c>
-      <c r="P73" s="6" t="s">
+      <c r="Q73" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>333</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>334</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>335</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>337</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>338</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>339</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="Q75" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>341</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>342</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>343</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="Q76" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="77" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>345</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>346</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>347</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="Q77" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="78" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>349</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>350</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>351</v>
       </c>
-      <c r="P78" s="6" t="s">
+      <c r="Q78" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="79" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>353</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>354</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>355</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="Q79" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="80" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>357</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>358</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>359</v>
       </c>
-      <c r="P80" s="6" t="s">
+      <c r="Q80" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>361</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>362</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>363</v>
       </c>
-      <c r="P81" s="6" t="s">
+      <c r="Q81" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>365</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>366</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>367</v>
       </c>
-      <c r="P82" s="6" t="s">
+      <c r="Q82" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>369</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>370</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>371</v>
       </c>
-      <c r="P83" s="6" t="s">
+      <c r="Q83" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>373</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>374</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>375</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="Q84" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>377</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>378</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>379</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>381</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>382</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>383</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>385</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>386</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>387</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>389</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>390</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>391</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>393</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>394</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>395</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>397</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>398</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>399</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="Q90" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>401</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>402</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>403</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="Q91" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>405</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>406</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>407</v>
       </c>
-      <c r="P92" s="6" t="s">
+      <c r="Q92" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>409</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>410</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>411</v>
       </c>
-      <c r="P93" s="6" t="s">
+      <c r="Q93" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>413</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>414</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>415</v>
       </c>
-      <c r="P94" s="6" t="s">
+      <c r="Q94" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>417</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>418</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>419</v>
       </c>
-      <c r="P95" s="6" t="s">
+      <c r="Q95" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="96" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>421</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>422</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>423</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="Q96" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="97" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>425</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>426</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>427</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="Q97" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="98" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>429</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>430</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>431</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="Q98" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="99" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>433</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>434</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>435</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="Q99" s="6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="100" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>437</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>438</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>439</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="Q100" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="101" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>441</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>442</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>443</v>
       </c>
-      <c r="P101" s="6" t="s">
+      <c r="Q101" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="102" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>445</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>446</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>447</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" s="6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="103" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>449</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>450</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>451</v>
       </c>
-      <c r="P103" s="6" t="s">
+      <c r="Q103" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+    <row r="104" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>453</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>454</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>455</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="105" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
         <v>457</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>458</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>459</v>
       </c>
-      <c r="P105" s="6" t="s">
+      <c r="Q105" s="6" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+    <row r="106" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>461</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>462</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>463</v>
       </c>
-      <c r="P106" s="6" t="s">
+      <c r="Q106" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="107" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>465</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>466</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>467</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="Q107" s="6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="108" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>469</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>470</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>471</v>
       </c>
-      <c r="P108" s="6" t="s">
+      <c r="Q108" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="109" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
         <v>473</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>474</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>475</v>
       </c>
-      <c r="P109" s="6" t="s">
+      <c r="Q109" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="110" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>477</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>478</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>479</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="Q110" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+    <row r="111" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
         <v>481</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>482</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>483</v>
       </c>
-      <c r="P111" s="6" t="s">
+      <c r="Q111" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="112" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
         <v>485</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>486</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>487</v>
       </c>
-      <c r="P112" s="6" t="s">
+      <c r="Q112" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>489</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>490</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>491</v>
       </c>
-      <c r="P113" s="6" t="s">
+      <c r="Q113" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
         <v>493</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>494</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>495</v>
       </c>
-      <c r="P114" s="6" t="s">
+      <c r="Q114" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>497</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>498</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>499</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="Q115" s="6" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>501</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>502</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>503</v>
       </c>
-      <c r="P116" s="6" t="s">
+      <c r="Q116" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>505</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>506</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>507</v>
       </c>
-      <c r="P117" s="6" t="s">
+      <c r="Q117" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>509</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>510</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>511</v>
       </c>
-      <c r="P118" s="6" t="s">
+      <c r="Q118" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>513</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>514</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>515</v>
       </c>
-      <c r="P119" s="6" t="s">
+      <c r="Q119" s="6" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
         <v>517</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>518</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>519</v>
       </c>
-      <c r="P120" s="6" t="s">
+      <c r="Q120" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
         <v>521</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>522</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>523</v>
       </c>
-      <c r="P121" s="6" t="s">
+      <c r="Q121" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>525</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>526</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>527</v>
       </c>
-      <c r="P122" s="6" t="s">
+      <c r="Q122" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>529</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>530</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>531</v>
       </c>
-      <c r="P123" s="6" t="s">
+      <c r="Q123" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
+    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>533</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>534</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>535</v>
       </c>
-      <c r="P124" s="6" t="s">
+      <c r="Q124" s="6" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
         <v>537</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>538</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>539</v>
       </c>
-      <c r="P125" s="6" t="s">
+      <c r="Q125" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>541</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>542</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>543</v>
       </c>
-      <c r="P126" s="6" t="s">
+      <c r="Q126" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>545</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>546</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>547</v>
       </c>
-      <c r="P127" s="6" t="s">
+      <c r="Q127" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>549</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>550</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>551</v>
       </c>
-      <c r="P128" s="6" t="s">
+      <c r="Q128" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+    <row r="129" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>553</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>554</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>555</v>
       </c>
-      <c r="P129" s="6" t="s">
+      <c r="Q129" s="6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+    <row r="130" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>557</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>558</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>559</v>
       </c>
-      <c r="P130" s="6" t="s">
+      <c r="Q130" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
+    <row r="131" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>561</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>562</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>563</v>
       </c>
-      <c r="P131" s="6" t="s">
+      <c r="Q131" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
+    <row r="132" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>565</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>566</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>567</v>
       </c>
-      <c r="P132" s="6" t="s">
+      <c r="Q132" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
+    <row r="133" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
         <v>569</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>570</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>571</v>
       </c>
-      <c r="P133" s="6" t="s">
+      <c r="Q133" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="134" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>573</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>574</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>575</v>
       </c>
-      <c r="P134" s="6" t="s">
+      <c r="Q134" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
+    <row r="135" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
         <v>577</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>578</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>579</v>
       </c>
-      <c r="P135" s="6" t="s">
+      <c r="Q135" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
+    <row r="136" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
         <v>581</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>582</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>583</v>
       </c>
-      <c r="P136" s="6" t="s">
+      <c r="Q136" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
+    <row r="137" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
         <v>585</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>586</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>587</v>
       </c>
-      <c r="P137" s="6" t="s">
+      <c r="Q137" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
+    <row r="138" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>589</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>590</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>591</v>
       </c>
-      <c r="P138" s="6" t="s">
+      <c r="Q138" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
+    <row r="139" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>593</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>594</v>
       </c>
-      <c r="P139" s="6" t="s">
+      <c r="Q139" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
+    <row r="140" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
         <v>596</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>597</v>
       </c>
-      <c r="P140" s="6" t="s">
+      <c r="Q140" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
+    <row r="141" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
         <v>599</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>600</v>
       </c>
-      <c r="P141" s="6" t="s">
+      <c r="Q141" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
+    <row r="142" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
         <v>602</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>603</v>
       </c>
-      <c r="P142" s="6" t="s">
+      <c r="Q142" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
+    <row r="143" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
         <v>605</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>606</v>
       </c>
-      <c r="P143" s="6" t="s">
+      <c r="Q143" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+    <row r="144" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
         <v>608</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>609</v>
       </c>
-      <c r="P144" s="6" t="s">
+      <c r="Q144" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
+    <row r="145" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
         <v>611</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>612</v>
       </c>
-      <c r="P145" s="6" t="s">
+      <c r="Q145" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
+    <row r="146" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>614</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>615</v>
       </c>
-      <c r="P146" s="6" t="s">
+      <c r="Q146" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="147" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
         <v>617</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>618</v>
       </c>
-      <c r="P147" s="6" t="s">
+      <c r="Q147" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
+    <row r="148" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
         <v>620</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>621</v>
       </c>
-      <c r="P148" s="6" t="s">
+      <c r="Q148" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
+    <row r="149" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
         <v>623</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>624</v>
       </c>
-      <c r="P149" s="6" t="s">
+      <c r="Q149" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+    <row r="150" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
         <v>626</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>627</v>
       </c>
-      <c r="P150" s="6" t="s">
+      <c r="Q150" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+    <row r="151" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
         <v>629</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>630</v>
       </c>
-      <c r="P151" s="6" t="s">
+      <c r="Q151" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    <row r="152" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
         <v>632</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>633</v>
       </c>
-      <c r="P152" s="6" t="s">
+      <c r="Q152" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
+    <row r="153" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
         <v>635</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>636</v>
       </c>
-      <c r="P153" s="6" t="s">
+      <c r="Q153" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    <row r="154" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
         <v>638</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>639</v>
       </c>
-      <c r="P154" s="6" t="s">
+      <c r="Q154" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="155" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
         <v>641</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>642</v>
       </c>
-      <c r="P155" s="6" t="s">
+      <c r="Q155" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
+    <row r="156" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>644</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>645</v>
       </c>
-      <c r="P156" s="6" t="s">
+      <c r="Q156" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+    <row r="157" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
         <v>647</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>648</v>
       </c>
-      <c r="P157" s="6" t="s">
+      <c r="Q157" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
+    <row r="158" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
         <v>650</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>651</v>
       </c>
-      <c r="P158" s="6" t="s">
+      <c r="Q158" s="6" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+    <row r="159" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
         <v>653</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>654</v>
       </c>
-      <c r="P159" s="6" t="s">
+      <c r="Q159" s="6" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+    <row r="160" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>656</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>657</v>
       </c>
-      <c r="P160" s="6" t="s">
+      <c r="Q160" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
+    <row r="161" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
         <v>659</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>660</v>
       </c>
-      <c r="P161" s="6" t="s">
+      <c r="Q161" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
+    <row r="162" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
         <v>662</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>663</v>
       </c>
-      <c r="P162" s="6" t="s">
+      <c r="Q162" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+    <row r="163" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
         <v>665</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>666</v>
       </c>
-      <c r="P163" s="6" t="s">
+      <c r="Q163" s="6" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
+    <row r="164" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
         <v>668</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>669</v>
       </c>
-      <c r="P164" s="6" t="s">
+      <c r="Q164" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
+    <row r="165" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
         <v>671</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>672</v>
       </c>
-      <c r="P165" s="6" t="s">
+      <c r="Q165" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
+    <row r="166" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
         <v>674</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>675</v>
       </c>
-      <c r="P166" s="6" t="s">
+      <c r="Q166" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
+    <row r="167" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
         <v>677</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>678</v>
       </c>
-      <c r="P167" s="6" t="s">
+      <c r="Q167" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
+    <row r="168" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
         <v>680</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>681</v>
       </c>
-      <c r="P168" s="6" t="s">
+      <c r="Q168" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
+    <row r="169" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
         <v>683</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>684</v>
       </c>
-      <c r="P169" s="6" t="s">
+      <c r="Q169" s="6" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
+    <row r="170" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>686</v>
       </c>
-      <c r="P170" s="6" t="s">
+      <c r="Q170" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
+    <row r="171" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
         <v>688</v>
       </c>
-      <c r="P171" s="6" t="s">
+      <c r="Q171" s="6" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
+    <row r="172" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
         <v>690</v>
       </c>
-      <c r="P172" s="6" t="s">
+      <c r="Q172" s="6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
+    <row r="173" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
         <v>692</v>
       </c>
-      <c r="P173" s="6" t="s">
+      <c r="Q173" s="6" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+    <row r="174" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
         <v>694</v>
       </c>
-      <c r="P174" s="6" t="s">
+      <c r="Q174" s="6" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="175" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
         <v>696</v>
       </c>
-      <c r="P175" s="6" t="s">
+      <c r="Q175" s="6" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="176" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
         <v>698</v>
       </c>
-      <c r="P176" s="6" t="s">
+      <c r="Q176" s="6" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="177" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+    <row r="177" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
         <v>700</v>
       </c>
-      <c r="P177" s="6" t="s">
+      <c r="Q177" s="6" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
+    <row r="178" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
         <v>702</v>
       </c>
-      <c r="P178" s="6" t="s">
+      <c r="Q178" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
+    <row r="179" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
         <v>704</v>
       </c>
-      <c r="P179" s="6" t="s">
+      <c r="Q179" s="6" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
+    <row r="180" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
         <v>706</v>
       </c>
-      <c r="P180" s="6" t="s">
+      <c r="Q180" s="6" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="181" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
+    <row r="181" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
         <v>708</v>
       </c>
-      <c r="P181" s="6" t="s">
+      <c r="Q181" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="182" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
+    <row r="182" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
         <v>710</v>
       </c>
-      <c r="P182" s="6" t="s">
+      <c r="Q182" s="6" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="183" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
+    <row r="183" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
         <v>712</v>
       </c>
-      <c r="P183" s="6" t="s">
+      <c r="Q183" s="6" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="184" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+    <row r="184" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
         <v>714</v>
       </c>
-      <c r="P184" s="6" t="s">
+      <c r="Q184" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="185" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
+    <row r="185" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
         <v>716</v>
       </c>
-      <c r="P185" s="6" t="s">
+      <c r="Q185" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="186" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
+    <row r="186" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
         <v>718</v>
       </c>
-      <c r="P186" s="6" t="s">
+      <c r="Q186" s="6" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="187" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="187" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="188" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
+    <row r="188" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="189" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
+    <row r="189" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
+    <row r="190" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="191" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
+    <row r="191" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="192" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
+    <row r="192" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" t="s">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" t="s">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" t="s">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" t="s">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" t="s">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" t="s">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" t="s">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" t="s">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
         <v>784</v>
       </c>
     </row>
